--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>Calcrl</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Adm</t>
-  </si>
-  <si>
-    <t>Calcrl</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H2">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I2">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J2">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.12972666666666</v>
+        <v>52.36202133333333</v>
       </c>
       <c r="N2">
-        <v>153.38918</v>
+        <v>157.086064</v>
       </c>
       <c r="O2">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147022</v>
       </c>
       <c r="P2">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147023</v>
       </c>
       <c r="Q2">
-        <v>442.3091535887732</v>
+        <v>826.2796607888373</v>
       </c>
       <c r="R2">
-        <v>3980.782382298959</v>
+        <v>7436.516947099535</v>
       </c>
       <c r="S2">
-        <v>0.1161845982703645</v>
+        <v>0.184650972825193</v>
       </c>
       <c r="T2">
-        <v>0.1161845982703646</v>
+        <v>0.184650972825193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H3">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I3">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J3">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.025447</v>
       </c>
       <c r="O3">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="P3">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="Q3">
-        <v>112.5327903245426</v>
+        <v>205.2755813481503</v>
       </c>
       <c r="R3">
-        <v>1012.795112920884</v>
+        <v>1847.480232133353</v>
       </c>
       <c r="S3">
-        <v>0.02955981564029747</v>
+        <v>0.04587349488550437</v>
       </c>
       <c r="T3">
-        <v>0.02955981564029747</v>
+        <v>0.04587349488550436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H4">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I4">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J4">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.403045333333333</v>
+        <v>10.240131</v>
       </c>
       <c r="N4">
-        <v>25.209136</v>
+        <v>30.720393</v>
       </c>
       <c r="O4">
-        <v>0.07981819192712479</v>
+        <v>0.09855223517796473</v>
       </c>
       <c r="P4">
-        <v>0.0798181919271248</v>
+        <v>0.09855223517796474</v>
       </c>
       <c r="Q4">
-        <v>72.69242593815466</v>
+        <v>161.590629117423</v>
       </c>
       <c r="R4">
-        <v>654.2318334433919</v>
+        <v>1454.315662056807</v>
       </c>
       <c r="S4">
-        <v>0.01909465412686204</v>
+        <v>0.03611109928263433</v>
       </c>
       <c r="T4">
-        <v>0.01909465412686204</v>
+        <v>0.03611109928263433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H5">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I5">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J5">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.527042000000001</v>
+        <v>1.816419</v>
       </c>
       <c r="N5">
-        <v>16.581126</v>
+        <v>5.449257</v>
       </c>
       <c r="O5">
-        <v>0.05249983567210869</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="P5">
-        <v>0.05249983567210868</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="Q5">
-        <v>47.81291487840799</v>
+        <v>28.663333403727</v>
       </c>
       <c r="R5">
-        <v>430.316233905672</v>
+        <v>257.970000633543</v>
       </c>
       <c r="S5">
-        <v>0.01255936998411685</v>
+        <v>0.006405473411215478</v>
       </c>
       <c r="T5">
-        <v>0.01255936998411685</v>
+        <v>0.006405473411215478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H6">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I6">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J6">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.572368</v>
+        <v>15.88623066666667</v>
       </c>
       <c r="N6">
-        <v>43.717104</v>
+        <v>47.658692</v>
       </c>
       <c r="O6">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722582</v>
       </c>
       <c r="P6">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722583</v>
       </c>
       <c r="Q6">
-        <v>126.061533594432</v>
+        <v>250.6868327886787</v>
       </c>
       <c r="R6">
-        <v>1134.553802349888</v>
+        <v>2256.181495098108</v>
       </c>
       <c r="S6">
-        <v>0.03311351013013921</v>
+        <v>0.05602167128827065</v>
       </c>
       <c r="T6">
-        <v>0.03311351013013922</v>
+        <v>0.05602167128827065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H7">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I7">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J7">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.63665566666666</v>
+        <v>10.59233466666667</v>
       </c>
       <c r="N7">
-        <v>37.90996699999999</v>
+        <v>31.777004</v>
       </c>
       <c r="O7">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="P7">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="Q7">
-        <v>109.3162204553693</v>
+        <v>167.1484498205107</v>
       </c>
       <c r="R7">
-        <v>983.8459840983238</v>
+        <v>1504.336048384596</v>
       </c>
       <c r="S7">
-        <v>0.0287148955769747</v>
+        <v>0.03735312065664877</v>
       </c>
       <c r="T7">
-        <v>0.0287148955769747</v>
+        <v>0.03735312065664877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>78.809133</v>
       </c>
       <c r="I8">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J8">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.12972666666666</v>
+        <v>52.36202133333333</v>
       </c>
       <c r="N8">
-        <v>153.38918</v>
+        <v>157.086064</v>
       </c>
       <c r="O8">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147022</v>
       </c>
       <c r="P8">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147023</v>
       </c>
       <c r="Q8">
-        <v>1343.163143042327</v>
+        <v>1375.535167802501</v>
       </c>
       <c r="R8">
-        <v>12088.46828738094</v>
+        <v>12379.81651022251</v>
       </c>
       <c r="S8">
-        <v>0.3528185408774545</v>
+        <v>0.3073946012994108</v>
       </c>
       <c r="T8">
-        <v>0.3528185408774545</v>
+        <v>0.3073946012994108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>78.809133</v>
       </c>
       <c r="I9">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J9">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>39.025447</v>
       </c>
       <c r="O9">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="P9">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="Q9">
         <v>341.7290714452723</v>
@@ -1013,10 +1013,10 @@
         <v>3075.561643007451</v>
       </c>
       <c r="S9">
-        <v>0.08976448839240445</v>
+        <v>0.07636712904778292</v>
       </c>
       <c r="T9">
-        <v>0.08976448839240445</v>
+        <v>0.07636712904778291</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>78.809133</v>
       </c>
       <c r="I10">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J10">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.403045333333333</v>
+        <v>10.240131</v>
       </c>
       <c r="N10">
-        <v>25.209136</v>
+        <v>30.720393</v>
       </c>
       <c r="O10">
-        <v>0.07981819192712479</v>
+        <v>0.09855223517796473</v>
       </c>
       <c r="P10">
-        <v>0.0798181919271248</v>
+        <v>0.09855223517796474</v>
       </c>
       <c r="Q10">
-        <v>220.7455724265653</v>
+        <v>269.005281972141</v>
       </c>
       <c r="R10">
-        <v>1986.710151839088</v>
+        <v>2421.047537749269</v>
       </c>
       <c r="S10">
-        <v>0.05798486294992457</v>
+        <v>0.0601153451651587</v>
       </c>
       <c r="T10">
-        <v>0.05798486294992458</v>
+        <v>0.0601153451651587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>78.809133</v>
       </c>
       <c r="I11">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J11">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.527042000000001</v>
+        <v>1.816419</v>
       </c>
       <c r="N11">
-        <v>16.581126</v>
+        <v>5.449257</v>
       </c>
       <c r="O11">
-        <v>0.05249983567210869</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="P11">
-        <v>0.05249983567210868</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="Q11">
-        <v>145.193796024862</v>
+        <v>47.716802184909</v>
       </c>
       <c r="R11">
-        <v>1306.744164223758</v>
+        <v>429.4512196641811</v>
       </c>
       <c r="S11">
-        <v>0.03813912220813245</v>
+        <v>0.01066340412535273</v>
       </c>
       <c r="T11">
-        <v>0.03813912220813245</v>
+        <v>0.01066340412535273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>78.809133</v>
       </c>
       <c r="I12">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J12">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.572368</v>
+        <v>15.88623066666667</v>
       </c>
       <c r="N12">
-        <v>43.717104</v>
+        <v>47.658692</v>
       </c>
       <c r="O12">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722582</v>
       </c>
       <c r="P12">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722583</v>
       </c>
       <c r="Q12">
-        <v>382.811895945648</v>
+        <v>417.3266884926707</v>
       </c>
       <c r="R12">
-        <v>3445.307063510832</v>
+        <v>3755.940196434036</v>
       </c>
       <c r="S12">
-        <v>0.10055601604147</v>
+        <v>0.09326113502844796</v>
       </c>
       <c r="T12">
-        <v>0.10055601604147</v>
+        <v>0.09326113502844796</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>78.809133</v>
       </c>
       <c r="I13">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J13">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.63665566666666</v>
+        <v>10.59233466666667</v>
       </c>
       <c r="N13">
-        <v>37.90996699999999</v>
+        <v>31.777004</v>
       </c>
       <c r="O13">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="P13">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="Q13">
-        <v>331.9612923698456</v>
+        <v>278.2575705086147</v>
       </c>
       <c r="R13">
-        <v>2987.651631328611</v>
+        <v>2504.318134577532</v>
       </c>
       <c r="S13">
-        <v>0.08719871402697668</v>
+        <v>0.06218297935754367</v>
       </c>
       <c r="T13">
-        <v>0.08719871402697668</v>
+        <v>0.06218297935754365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H14">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I14">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J14">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.12972666666666</v>
+        <v>52.36202133333333</v>
       </c>
       <c r="N14">
-        <v>153.38918</v>
+        <v>157.086064</v>
       </c>
       <c r="O14">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147022</v>
       </c>
       <c r="P14">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147023</v>
       </c>
       <c r="Q14">
-        <v>1.087273637566667</v>
+        <v>50.95892860968533</v>
       </c>
       <c r="R14">
-        <v>9.7854627381</v>
+        <v>458.6303574871679</v>
       </c>
       <c r="S14">
-        <v>0.0002856021625726705</v>
+        <v>0.0113879309735456</v>
       </c>
       <c r="T14">
-        <v>0.0002856021625726705</v>
+        <v>0.01138793097354561</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H15">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I15">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J15">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.025447</v>
       </c>
       <c r="O15">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="P15">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="Q15">
-        <v>0.2766253768183334</v>
+        <v>12.65990704072933</v>
       </c>
       <c r="R15">
-        <v>2.489628391365</v>
+        <v>113.939163366564</v>
       </c>
       <c r="S15">
-        <v>7.266322212926062E-05</v>
+        <v>0.002829144007629872</v>
       </c>
       <c r="T15">
-        <v>7.266322212926059E-05</v>
+        <v>0.002829144007629871</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H16">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I16">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J16">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.403045333333333</v>
+        <v>10.240131</v>
       </c>
       <c r="N16">
-        <v>25.209136</v>
+        <v>30.720393</v>
       </c>
       <c r="O16">
-        <v>0.07981819192712479</v>
+        <v>0.09855223517796473</v>
       </c>
       <c r="P16">
-        <v>0.0798181919271248</v>
+        <v>0.09855223517796474</v>
       </c>
       <c r="Q16">
-        <v>0.1786907590133333</v>
+        <v>9.965736449724</v>
       </c>
       <c r="R16">
-        <v>1.60821683112</v>
+        <v>89.69162804751601</v>
       </c>
       <c r="S16">
-        <v>4.693801582477045E-05</v>
+        <v>0.002227070346381546</v>
       </c>
       <c r="T16">
-        <v>4.693801582477044E-05</v>
+        <v>0.002227070346381546</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H17">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I17">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J17">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.527042000000001</v>
+        <v>1.816419</v>
       </c>
       <c r="N17">
-        <v>16.581126</v>
+        <v>5.449257</v>
       </c>
       <c r="O17">
-        <v>0.05249983567210869</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="P17">
-        <v>0.05249983567210868</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="Q17">
-        <v>0.11753254813</v>
+        <v>1.767746236476</v>
       </c>
       <c r="R17">
-        <v>1.05779293317</v>
+        <v>15.909716128284</v>
       </c>
       <c r="S17">
-        <v>3.08731387930357E-05</v>
+        <v>0.0003950430801621601</v>
       </c>
       <c r="T17">
-        <v>3.087313879303569E-05</v>
+        <v>0.0003950430801621601</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H18">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I18">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J18">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.572368</v>
+        <v>15.88623066666667</v>
       </c>
       <c r="N18">
-        <v>43.717104</v>
+        <v>47.658692</v>
       </c>
       <c r="O18">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722582</v>
       </c>
       <c r="P18">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722583</v>
       </c>
       <c r="Q18">
-        <v>0.30988140552</v>
+        <v>15.46054322972267</v>
       </c>
       <c r="R18">
-        <v>2.78893264968</v>
+        <v>139.144889067504</v>
       </c>
       <c r="S18">
-        <v>8.139882776486808E-05</v>
+        <v>0.00345500982687726</v>
       </c>
       <c r="T18">
-        <v>8.139882776486807E-05</v>
+        <v>0.00345500982687726</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H19">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I19">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J19">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.63665566666666</v>
+        <v>10.59233466666667</v>
       </c>
       <c r="N19">
-        <v>37.90996699999999</v>
+        <v>31.777004</v>
       </c>
       <c r="O19">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="P19">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="Q19">
-        <v>0.2687184827516667</v>
+        <v>10.30850246693867</v>
       </c>
       <c r="R19">
-        <v>2.418466344765</v>
+        <v>92.77652220244801</v>
       </c>
       <c r="S19">
-        <v>7.05862601146872E-05</v>
+        <v>0.00230366920453289</v>
       </c>
       <c r="T19">
-        <v>7.058626011468719E-05</v>
+        <v>0.00230366920453289</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H20">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I20">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J20">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>51.12972666666666</v>
+        <v>52.36202133333333</v>
       </c>
       <c r="N20">
-        <v>153.38918</v>
+        <v>157.086064</v>
       </c>
       <c r="O20">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147022</v>
       </c>
       <c r="P20">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147023</v>
       </c>
       <c r="Q20">
-        <v>46.04719323060889</v>
+        <v>0.7812239042862221</v>
       </c>
       <c r="R20">
-        <v>414.42473907548</v>
+        <v>7.031015138576</v>
       </c>
       <c r="S20">
-        <v>0.01209555489315096</v>
+        <v>0.0001745822398472563</v>
       </c>
       <c r="T20">
-        <v>0.01209555489315096</v>
+        <v>0.0001745822398472564</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H21">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I21">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J21">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>39.025447</v>
       </c>
       <c r="O21">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="P21">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="Q21">
-        <v>11.71537848314911</v>
+        <v>0.1940822202525556</v>
       </c>
       <c r="R21">
-        <v>105.438406348342</v>
+        <v>1.746739982273</v>
       </c>
       <c r="S21">
-        <v>0.003077364625185775</v>
+        <v>4.337208390618528E-05</v>
       </c>
       <c r="T21">
-        <v>0.003077364625185774</v>
+        <v>4.337208390618528E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H22">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I22">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J22">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.403045333333333</v>
+        <v>10.240131</v>
       </c>
       <c r="N22">
-        <v>25.209136</v>
+        <v>30.720393</v>
       </c>
       <c r="O22">
-        <v>0.07981819192712479</v>
+        <v>0.09855223517796473</v>
       </c>
       <c r="P22">
-        <v>0.0798181919271248</v>
+        <v>0.09855223517796474</v>
       </c>
       <c r="Q22">
-        <v>7.567743412988444</v>
+        <v>0.152779341143</v>
       </c>
       <c r="R22">
-        <v>68.10969071689601</v>
+        <v>1.375014070287</v>
       </c>
       <c r="S22">
-        <v>0.001987874818138463</v>
+        <v>3.414201669046832E-05</v>
       </c>
       <c r="T22">
-        <v>0.001987874818138463</v>
+        <v>3.414201669046833E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H23">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I23">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J23">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.527042000000001</v>
+        <v>1.816419</v>
       </c>
       <c r="N23">
-        <v>16.581126</v>
+        <v>5.449257</v>
       </c>
       <c r="O23">
-        <v>0.05249983567210869</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="P23">
-        <v>0.05249983567210868</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="Q23">
-        <v>4.977628232337334</v>
+        <v>0.027100366007</v>
       </c>
       <c r="R23">
-        <v>44.79865409103601</v>
+        <v>0.243903294063</v>
       </c>
       <c r="S23">
-        <v>0.001307510215018117</v>
+        <v>6.056192817736783E-06</v>
       </c>
       <c r="T23">
-        <v>0.001307510215018116</v>
+        <v>6.056192817736783E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H24">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I24">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J24">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.572368</v>
+        <v>15.88623066666667</v>
       </c>
       <c r="N24">
-        <v>43.717104</v>
+        <v>47.658692</v>
       </c>
       <c r="O24">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722582</v>
       </c>
       <c r="P24">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722583</v>
       </c>
       <c r="Q24">
-        <v>13.123806616416</v>
+        <v>0.2370172661364444</v>
       </c>
       <c r="R24">
-        <v>118.114259547744</v>
+        <v>2.133155395228</v>
       </c>
       <c r="S24">
-        <v>0.003447326801027225</v>
+        <v>5.296689588931656E-05</v>
       </c>
       <c r="T24">
-        <v>0.003447326801027225</v>
+        <v>5.296689588931656E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H25">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I25">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J25">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.63665566666666</v>
+        <v>10.59233466666667</v>
       </c>
       <c r="N25">
-        <v>37.90996699999999</v>
+        <v>31.777004</v>
       </c>
       <c r="O25">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="P25">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="Q25">
-        <v>11.38051312234022</v>
+        <v>0.1580341024484445</v>
       </c>
       <c r="R25">
-        <v>102.424618101062</v>
+        <v>1.422306922036</v>
       </c>
       <c r="S25">
-        <v>0.002989403078144372</v>
+        <v>3.531631255306788E-05</v>
       </c>
       <c r="T25">
-        <v>0.002989403078144372</v>
+        <v>3.531631255306788E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.3188806666666666</v>
+        <v>0.02822</v>
       </c>
       <c r="H26">
-        <v>0.956642</v>
+        <v>0.08466</v>
       </c>
       <c r="I26">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J26">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>51.12972666666666</v>
+        <v>52.36202133333333</v>
       </c>
       <c r="N26">
-        <v>153.38918</v>
+        <v>157.086064</v>
       </c>
       <c r="O26">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147022</v>
       </c>
       <c r="P26">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147023</v>
       </c>
       <c r="Q26">
-        <v>16.30428132595111</v>
+        <v>1.477656242026667</v>
       </c>
       <c r="R26">
-        <v>146.73853193356</v>
+        <v>13.29890617824</v>
       </c>
       <c r="S26">
-        <v>0.004282765483311304</v>
+        <v>0.0003302158767056619</v>
       </c>
       <c r="T26">
-        <v>0.004282765483311304</v>
+        <v>0.000330215876705662</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.3188806666666666</v>
+        <v>0.02822</v>
       </c>
       <c r="H27">
-        <v>0.956642</v>
+        <v>0.08466</v>
       </c>
       <c r="I27">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J27">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>39.025447</v>
       </c>
       <c r="O27">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="P27">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="Q27">
-        <v>4.148153518774889</v>
+        <v>0.3670993714466667</v>
       </c>
       <c r="R27">
-        <v>37.333381668974</v>
+        <v>3.30389434302</v>
       </c>
       <c r="S27">
-        <v>0.001089625991757663</v>
+        <v>8.203669928947577E-05</v>
       </c>
       <c r="T27">
-        <v>0.001089625991757663</v>
+        <v>8.203669928947577E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,25 +2146,25 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.3188806666666666</v>
+        <v>0.02822</v>
       </c>
       <c r="H28">
-        <v>0.956642</v>
+        <v>0.08466</v>
       </c>
       <c r="I28">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J28">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.403045333333333</v>
+        <v>10.240131</v>
       </c>
       <c r="N28">
-        <v>25.209136</v>
+        <v>30.720393</v>
       </c>
       <c r="O28">
-        <v>0.07981819192712479</v>
+        <v>0.09855223517796473</v>
       </c>
       <c r="P28">
-        <v>0.0798181919271248</v>
+        <v>0.09855223517796474</v>
       </c>
       <c r="Q28">
-        <v>2.679568697923555</v>
+        <v>0.28897649682</v>
       </c>
       <c r="R28">
-        <v>24.116118281312</v>
+        <v>2.60078847138</v>
       </c>
       <c r="S28">
-        <v>0.0007038620163749515</v>
+        <v>6.457836709969052E-05</v>
       </c>
       <c r="T28">
-        <v>0.0007038620163749516</v>
+        <v>6.457836709969053E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,25 +2208,25 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.3188806666666666</v>
+        <v>0.02822</v>
       </c>
       <c r="H29">
-        <v>0.956642</v>
+        <v>0.08466</v>
       </c>
       <c r="I29">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J29">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.527042000000001</v>
+        <v>1.816419</v>
       </c>
       <c r="N29">
-        <v>16.581126</v>
+        <v>5.449257</v>
       </c>
       <c r="O29">
-        <v>0.05249983567210869</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="P29">
-        <v>0.05249983567210868</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="Q29">
-        <v>1.762466837654667</v>
+        <v>0.05125934418</v>
       </c>
       <c r="R29">
-        <v>15.862201538892</v>
+        <v>0.46133409762</v>
       </c>
       <c r="S29">
-        <v>0.0004629601260482366</v>
+        <v>1.145506566164561E-05</v>
       </c>
       <c r="T29">
-        <v>0.0004629601260482365</v>
+        <v>1.145506566164561E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,25 +2270,25 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.3188806666666666</v>
+        <v>0.02822</v>
       </c>
       <c r="H30">
-        <v>0.956642</v>
+        <v>0.08466</v>
       </c>
       <c r="I30">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J30">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>14.572368</v>
+        <v>15.88623066666667</v>
       </c>
       <c r="N30">
-        <v>43.717104</v>
+        <v>47.658692</v>
       </c>
       <c r="O30">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722582</v>
       </c>
       <c r="P30">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722583</v>
       </c>
       <c r="Q30">
-        <v>4.646846422752</v>
+        <v>0.4483094294133333</v>
       </c>
       <c r="R30">
-        <v>41.821617804768</v>
+        <v>4.03478486472</v>
       </c>
       <c r="S30">
-        <v>0.001220621324408479</v>
+        <v>0.0001001849327730633</v>
       </c>
       <c r="T30">
-        <v>0.001220621324408479</v>
+        <v>0.0001001849327730633</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,25 +2332,25 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.3188806666666666</v>
+        <v>0.02822</v>
       </c>
       <c r="H31">
-        <v>0.956642</v>
+        <v>0.08466</v>
       </c>
       <c r="I31">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J31">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.63665566666666</v>
+        <v>10.59233466666667</v>
       </c>
       <c r="N31">
-        <v>37.90996699999999</v>
+        <v>31.777004</v>
       </c>
       <c r="O31">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="P31">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="Q31">
-        <v>4.029585183423777</v>
+        <v>0.2989156842933334</v>
       </c>
       <c r="R31">
-        <v>36.266266650814</v>
+        <v>2.69024115864</v>
       </c>
       <c r="S31">
-        <v>0.001058480775117714</v>
+        <v>6.679950447379806E-05</v>
       </c>
       <c r="T31">
-        <v>0.001058480775117714</v>
+        <v>6.679950447379806E-05</v>
       </c>
     </row>
   </sheetData>
